--- a/data/Cam_PoliticalActionCommittee.xlsx
+++ b/data/Cam_PoliticalActionCommittee.xlsx
@@ -7,10 +7,10 @@
     <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" r:id="rId1" name="Cam_PoliticalActionCommittee"/>
+    <sheet sheetId="1" r:id="rId1" name="NMInDepth_Cam_PoliticalActionCo"/>
   </sheets>
   <definedNames>
-    <definedName name="Cam_PoliticalActionCommittee">'Cam_PoliticalActionCommittee'!$A$1:$U$618</definedName>
+    <definedName name="NMInDepth_Cam_PoliticalActionCommittee">'NMInDepth_Cam_PoliticalActionCo'!$A$1:$U$634</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U618"/>
+  <dimension ref="A1:U634"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -743,12 +743,6 @@
       <c r="Q7" s="0">
         <v>15730</v>
       </c>
-      <c r="R7" s="2">
-        <v>0</v>
-      </c>
-      <c r="S7" s="0">
-        <v>0</v>
-      </c>
     </row>
     <row outlineLevel="0" r="8">
       <c r="A8" s="0">
@@ -1083,7 +1077,7 @@
       </c>
       <c r="C14" s="0" t="inlineStr">
         <is>
-          <t>REALTORS ASSOC OF NM PAC</t>
+          <t>NM ASSOC OF REALTORS PAC</t>
         </is>
       </c>
       <c r="E14" s="0" t="inlineStr">
@@ -1093,7 +1087,7 @@
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
-          <t>diane@nmrealtor.com</t>
+          <t>Mellanie@nmrealtor.com</t>
         </is>
       </c>
       <c r="H14" s="0">
@@ -1123,6 +1117,12 @@
       </c>
       <c r="Q14" s="0">
         <v>12312</v>
+      </c>
+      <c r="R14" s="2">
+        <v>0</v>
+      </c>
+      <c r="S14" s="0">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="15">
@@ -2892,7 +2892,7 @@
       </c>
       <c r="E47" s="0" t="inlineStr">
         <is>
-          <t>575-461-3125</t>
+          <t>575-403-7255</t>
         </is>
       </c>
       <c r="G47" s="0" t="inlineStr">
@@ -3921,12 +3921,12 @@
       </c>
       <c r="E66" s="0" t="inlineStr">
         <is>
-          <t>(505) 241-2286</t>
+          <t>(505) 241-2247</t>
         </is>
       </c>
       <c r="G66" s="0" t="inlineStr">
         <is>
-          <t>Diane.Zamora@pnmresources.com</t>
+          <t>Debbie.Conger@pnmresources.com</t>
         </is>
       </c>
       <c r="H66" s="0">
@@ -3946,12 +3946,12 @@
       </c>
       <c r="N66" s="0" t="inlineStr">
         <is>
-          <t>Compass Bank</t>
+          <t>BBVA</t>
         </is>
       </c>
       <c r="O66" s="0" t="inlineStr">
         <is>
-          <t>(505) 888-9116</t>
+          <t>(505) 888-9115</t>
         </is>
       </c>
       <c r="Q66" s="0">
@@ -4245,7 +4245,7 @@
       </c>
       <c r="D72" s="0" t="inlineStr">
         <is>
-          <t>FRWLC</t>
+          <t>FRWLC-PAC</t>
         </is>
       </c>
       <c r="E72" s="0" t="inlineStr">
@@ -4302,7 +4302,7 @@
       </c>
       <c r="C73" s="0" t="inlineStr">
         <is>
-          <t>Democratic Party of Lincoln County</t>
+          <t>Alicia Lopez</t>
         </is>
       </c>
       <c r="D73" s="0" t="inlineStr">
@@ -4312,17 +4312,17 @@
       </c>
       <c r="E73" s="0" t="inlineStr">
         <is>
+          <t>5759379808</t>
+        </is>
+      </c>
+      <c r="F73" s="0" t="inlineStr">
+        <is>
           <t>575-336-2784</t>
         </is>
       </c>
-      <c r="F73" s="0" t="inlineStr">
-        <is>
-          <t>575-336-2784</t>
-        </is>
-      </c>
       <c r="G73" s="0" t="inlineStr">
         <is>
-          <t>ecofreak56@live.com</t>
+          <t>alicialopez@yahoo.com</t>
         </is>
       </c>
       <c r="H73" s="0">
@@ -4342,7 +4342,7 @@
       </c>
       <c r="N73" s="0" t="inlineStr">
         <is>
-          <t>City Bank New Mexico</t>
+          <t>City Bank</t>
         </is>
       </c>
       <c r="O73" s="0" t="inlineStr">
@@ -4862,12 +4862,12 @@
       </c>
       <c r="E83" s="0" t="inlineStr">
         <is>
-          <t>(505) 830-3650</t>
+          <t>5055042275</t>
         </is>
       </c>
       <c r="G83" s="0" t="inlineStr">
         <is>
-          <t>steve_estrada@msn.com</t>
+          <t>rsmith017@gmail.com</t>
         </is>
       </c>
       <c r="H83" s="0">
@@ -4887,7 +4887,7 @@
       </c>
       <c r="N83" s="0" t="inlineStr">
         <is>
-          <t>Bank of the West</t>
+          <t>New Mexico Bank and Trust</t>
         </is>
       </c>
       <c r="O83" s="0" t="inlineStr">
@@ -5592,7 +5592,7 @@
         <v>40179</v>
       </c>
       <c r="K96" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L96" s="0">
         <v>1574</v>
@@ -5762,7 +5762,7 @@
         <v>40179</v>
       </c>
       <c r="K99" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L99" s="0">
         <v>1577</v>
@@ -6080,12 +6080,12 @@
       </c>
       <c r="E105" s="0" t="inlineStr">
         <is>
-          <t>360.731.1659</t>
+          <t>(505) 712-0132</t>
         </is>
       </c>
       <c r="G105" s="0" t="inlineStr">
         <is>
-          <t>charleskinne52@gmail.com</t>
+          <t>barron4life@gmail.com</t>
         </is>
       </c>
       <c r="H105" s="0">
@@ -6115,6 +6115,12 @@
       </c>
       <c r="Q105" s="0">
         <v>28765</v>
+      </c>
+      <c r="R105" s="2">
+        <v>0</v>
+      </c>
+      <c r="S105" s="0">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="106">
@@ -6407,24 +6413,14 @@
           <t>Republican Party of Colfax Company</t>
         </is>
       </c>
-      <c r="D111" s="0" t="inlineStr">
-        <is>
-          <t>RPCC</t>
-        </is>
-      </c>
       <c r="E111" s="0" t="inlineStr">
         <is>
-          <t>505-660-7404</t>
-        </is>
-      </c>
-      <c r="F111" s="0" t="inlineStr">
-        <is>
-          <t>575-445-3265</t>
+          <t>505-428-8023</t>
         </is>
       </c>
       <c r="G111" s="0" t="inlineStr">
         <is>
-          <t>dell@bacavalley.com</t>
+          <t>debby.welker@gmail.com</t>
         </is>
       </c>
       <c r="H111" s="0">
@@ -6794,24 +6790,19 @@
           <t>Los Alamos County Republican Central Committee</t>
         </is>
       </c>
-      <c r="D118" s="0" t="inlineStr">
-        <is>
-          <t>RPLA</t>
-        </is>
-      </c>
       <c r="E118" s="0" t="inlineStr">
         <is>
-          <t>(505)672-1067</t>
+          <t>(505)309-2159</t>
         </is>
       </c>
       <c r="F118" s="0" t="inlineStr">
         <is>
-          <t>(505)672-3142</t>
+          <t>(505)257-8991</t>
         </is>
       </c>
       <c r="G118" s="0" t="inlineStr">
         <is>
-          <t>jmgordon@worldsharp.com</t>
+          <t>whitejw77@gmail.com</t>
         </is>
       </c>
       <c r="H118" s="0">
@@ -6841,12 +6832,6 @@
       </c>
       <c r="Q118" s="0">
         <v>20018</v>
-      </c>
-      <c r="R118" s="2">
-        <v>0</v>
-      </c>
-      <c r="S118" s="0">
-        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="119">
@@ -7692,7 +7677,7 @@
       </c>
       <c r="C134" s="0" t="inlineStr">
         <is>
-          <t>Torrance County Republican Party</t>
+          <t>Republican Party of Torrance County</t>
         </is>
       </c>
       <c r="E134" s="0" t="inlineStr">
@@ -7841,7 +7826,7 @@
       </c>
       <c r="N136" s="0" t="inlineStr">
         <is>
-          <t>Western Bank</t>
+          <t>FIRST SAVINGS</t>
         </is>
       </c>
       <c r="O136" s="0" t="inlineStr">
@@ -8845,12 +8830,6 @@
       <c r="Q154" s="0">
         <v>90012</v>
       </c>
-      <c r="R154" s="2">
-        <v>0</v>
-      </c>
-      <c r="S154" s="0">
-        <v>0</v>
-      </c>
     </row>
     <row outlineLevel="0" r="155">
       <c r="A155" s="0">
@@ -9016,12 +8995,6 @@
       <c r="Q157" s="0">
         <v>19744</v>
       </c>
-      <c r="R157" s="2">
-        <v>0</v>
-      </c>
-      <c r="S157" s="0">
-        <v>0</v>
-      </c>
     </row>
     <row outlineLevel="0" r="158">
       <c r="A158" s="0">
@@ -10178,11 +10151,6 @@
           <t>Curry County Democratic Party</t>
         </is>
       </c>
-      <c r="D178" s="0" t="inlineStr">
-        <is>
-          <t>CCDP</t>
-        </is>
-      </c>
       <c r="E178" s="0" t="inlineStr">
         <is>
           <t>575-769-1982</t>
@@ -10223,19 +10191,8 @@
           <t>(505) 769-9000</t>
         </is>
       </c>
-      <c r="P178" s="0" t="inlineStr">
-        <is>
-          <t>575-769-2365</t>
-        </is>
-      </c>
       <c r="Q178" s="0">
         <v>35390</v>
-      </c>
-      <c r="R178" s="2">
-        <v>0</v>
-      </c>
-      <c r="S178" s="0">
-        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="179">
@@ -10588,6 +10545,12 @@
       <c r="Q185" s="0">
         <v>47895</v>
       </c>
+      <c r="R185" s="2">
+        <v>0</v>
+      </c>
+      <c r="S185" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="186">
       <c r="A186" s="0">
@@ -11577,12 +11540,12 @@
       </c>
       <c r="E204" s="0" t="inlineStr">
         <is>
-          <t>575-791-0765</t>
+          <t>575-791-3021</t>
         </is>
       </c>
       <c r="G204" s="0" t="inlineStr">
         <is>
-          <t>pilarm1962@yahoo.com</t>
+          <t>tatertot331@gmail.com</t>
         </is>
       </c>
       <c r="H204" s="0">
@@ -13721,7 +13684,7 @@
         <v>40179</v>
       </c>
       <c r="K245" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L245" s="0">
         <v>1737</v>
@@ -14035,12 +13998,12 @@
       </c>
       <c r="E252" s="0" t="inlineStr">
         <is>
-          <t>(505) 982-4611</t>
+          <t>000-000-0000</t>
         </is>
       </c>
       <c r="G252" s="0" t="inlineStr">
         <is>
-          <t>dduran@cmtisantafe.com</t>
+          <t>aduran@duranresources.com</t>
         </is>
       </c>
       <c r="H252" s="0">
@@ -15746,7 +15709,7 @@
       </c>
       <c r="G286" s="0" t="inlineStr">
         <is>
-          <t>info@iatselocal480.com</t>
+          <t>secretary_treasurer@iatselocal480.com</t>
         </is>
       </c>
       <c r="H286" s="0">
@@ -15766,12 +15729,12 @@
       </c>
       <c r="N286" s="0" t="inlineStr">
         <is>
-          <t>Sunflower Bank</t>
+          <t>First National 1870</t>
         </is>
       </c>
       <c r="O286" s="0" t="inlineStr">
         <is>
-          <t>505-820-0089</t>
+          <t>505-992-2226</t>
         </is>
       </c>
       <c r="Q286" s="0">
@@ -16082,12 +16045,12 @@
       </c>
       <c r="E293" s="0" t="inlineStr">
         <is>
-          <t>505-867-5199</t>
+          <t>505-720-4883</t>
         </is>
       </c>
       <c r="G293" s="0" t="inlineStr">
         <is>
-          <t>srmarymaid@aol.com</t>
+          <t>juliewright45@gmail.com</t>
         </is>
       </c>
       <c r="H293" s="0">
@@ -17559,7 +17522,7 @@
         <v>40415.4204050926</v>
       </c>
       <c r="K320" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L320" s="0">
         <v>43069</v>
@@ -18573,7 +18536,7 @@
         <v>40812.6256365741</v>
       </c>
       <c r="K339" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L339" s="0">
         <v>72760</v>
@@ -18887,7 +18850,7 @@
       </c>
       <c r="D345" s="0" t="inlineStr">
         <is>
-          <t>DPRACNM</t>
+          <t>DPofRAC</t>
         </is>
       </c>
       <c r="E345" s="0" t="inlineStr">
@@ -18897,7 +18860,7 @@
       </c>
       <c r="F345" s="0" t="inlineStr">
         <is>
-          <t>505-753-2046</t>
+          <t>505-929-2868</t>
         </is>
       </c>
       <c r="G345" s="0" t="inlineStr">
@@ -18922,12 +18885,12 @@
       </c>
       <c r="N345" s="0" t="inlineStr">
         <is>
-          <t>Century Bank</t>
+          <t>Del Norte Credit Union</t>
         </is>
       </c>
       <c r="O345" s="0" t="inlineStr">
         <is>
-          <t>505.367.1200</t>
+          <t>505.747.3628</t>
         </is>
       </c>
       <c r="Q345" s="0">
@@ -19692,7 +19655,7 @@
       </c>
       <c r="E359" s="0" t="inlineStr">
         <is>
-          <t>505.795.0369</t>
+          <t>(505) 986-9641</t>
         </is>
       </c>
       <c r="G359" s="0" t="inlineStr">
@@ -22314,7 +22277,7 @@
         <v>41292.557974537</v>
       </c>
       <c r="K405" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L405" s="0">
         <v>140475</v>
@@ -22548,12 +22511,12 @@
       </c>
       <c r="N409" s="0" t="inlineStr">
         <is>
-          <t>First American Bank </t>
+          <t>Wells Fargo</t>
         </is>
       </c>
       <c r="O409" s="0" t="inlineStr">
         <is>
-          <t>575-392-9200</t>
+          <t>575-391-3600</t>
         </is>
       </c>
       <c r="Q409" s="0">
@@ -23826,7 +23789,7 @@
         <v>41740.4324074074</v>
       </c>
       <c r="K432" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L432" s="0">
         <v>155460</v>
@@ -24212,7 +24175,7 @@
         <v>41779.4575810185</v>
       </c>
       <c r="K439" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L439" s="0">
         <v>168918</v>
@@ -24927,7 +24890,7 @@
         <v>41863.558287037</v>
       </c>
       <c r="K452" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L452" s="0">
         <v>178627</v>
@@ -25782,12 +25745,12 @@
       </c>
       <c r="N467" s="0" t="inlineStr">
         <is>
-          <t>JP Morgan Chase</t>
+          <t>Amalgamated Bank</t>
         </is>
       </c>
       <c r="O467" s="0" t="inlineStr">
         <is>
-          <t>212-499-2845</t>
+          <t>212-895-8988</t>
         </is>
       </c>
       <c r="Q467" s="0">
@@ -26510,6 +26473,11 @@
           <t>New Mexico House Democratic Campaign Committee</t>
         </is>
       </c>
+      <c r="D480" s="0" t="inlineStr">
+        <is>
+          <t>NMHDCC</t>
+        </is>
+      </c>
       <c r="E480" s="0" t="inlineStr">
         <is>
           <t>505-986-9641</t>
@@ -26547,6 +26515,12 @@
       </c>
       <c r="Q480" s="0">
         <v>221756</v>
+      </c>
+      <c r="R480" s="2">
+        <v>0</v>
+      </c>
+      <c r="S480" s="0">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="481">
@@ -26623,11 +26597,6 @@
           <t>(505) 876-7365</t>
         </is>
       </c>
-      <c r="F482" s="0" t="inlineStr">
-        <is>
-          <t>(505) 290-9259</t>
-        </is>
-      </c>
       <c r="G482" s="0" t="inlineStr">
         <is>
           <t>nmccgop@gmail.com</t>
@@ -27530,7 +27499,7 @@
       </c>
       <c r="G498" s="0" t="inlineStr">
         <is>
-          <t>javierfornm@gmail.com</t>
+          <t>jake@nmhdcc.com</t>
         </is>
       </c>
       <c r="H498" s="0">
@@ -27577,17 +27546,22 @@
       </c>
       <c r="C499" s="0" t="inlineStr">
         <is>
-          <t>Rio Rancho YES</t>
+          <t>Grow Rio PAC</t>
         </is>
       </c>
       <c r="E499" s="0" t="inlineStr">
         <is>
-          <t>5059300446</t>
+          <t>505-250-1876</t>
+        </is>
+      </c>
+      <c r="F499" s="0" t="inlineStr">
+        <is>
+          <t>(505) 250-1876</t>
         </is>
       </c>
       <c r="G499" s="0" t="inlineStr">
         <is>
-          <t>msilva80.ms@gmail.com</t>
+          <t>rhdraper1@gmail.com</t>
         </is>
       </c>
       <c r="H499" s="0">
@@ -27617,12 +27591,6 @@
       </c>
       <c r="Q499" s="0">
         <v>227401</v>
-      </c>
-      <c r="R499" s="2">
-        <v>0</v>
-      </c>
-      <c r="S499" s="0">
-        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="500">
@@ -27657,7 +27625,7 @@
         <v>42395.6097685185</v>
       </c>
       <c r="K500" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L500" s="0">
         <v>208519</v>
@@ -28600,7 +28568,7 @@
       </c>
       <c r="G517" s="0" t="inlineStr">
         <is>
-          <t>jillriester@gmail.com</t>
+          <t>karla@alls-nm.com</t>
         </is>
       </c>
       <c r="H517" s="0">
@@ -29335,7 +29303,7 @@
         <v>42639.4785069444</v>
       </c>
       <c r="K530" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L530" s="0">
         <v>240051</v>
@@ -31033,12 +31001,17 @@
       </c>
       <c r="E561" s="0" t="inlineStr">
         <is>
-          <t>925-899-3795</t>
+          <t>505 870 1076</t>
+        </is>
+      </c>
+      <c r="F561" s="0" t="inlineStr">
+        <is>
+          <t>505 863 7902</t>
         </is>
       </c>
       <c r="G561" s="0" t="inlineStr">
         <is>
-          <t>info@mckinleydemocrats.org</t>
+          <t>MaryArmijo@iHeartMedia.com</t>
         </is>
       </c>
       <c r="H561" s="0">
@@ -31058,7 +31031,7 @@
       </c>
       <c r="N561" s="0" t="inlineStr">
         <is>
-          <t>Washington Federal</t>
+          <t>Pinnacle Bank</t>
         </is>
       </c>
       <c r="O561" s="0" t="inlineStr">
@@ -31068,12 +31041,6 @@
       </c>
       <c r="Q561" s="0">
         <v>277814</v>
-      </c>
-      <c r="R561" s="2">
-        <v>0</v>
-      </c>
-      <c r="S561" s="0">
-        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="562">
@@ -33149,12 +33116,6 @@
       <c r="Q598" s="0">
         <v>313189</v>
       </c>
-      <c r="R598" s="2">
-        <v>0</v>
-      </c>
-      <c r="S598" s="0">
-        <v>0</v>
-      </c>
     </row>
     <row outlineLevel="0" r="599">
       <c r="A599" s="0">
@@ -33528,7 +33489,7 @@
         <v>43383.4553472222</v>
       </c>
       <c r="K605" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L605" s="0">
         <v>298194</v>
@@ -33642,7 +33603,7 @@
         <v>43391.6882407407</v>
       </c>
       <c r="K607" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L607" s="0">
         <v>298519</v>
@@ -33975,7 +33936,7 @@
       </c>
       <c r="E613" s="0" t="inlineStr">
         <is>
-          <t>505-206-3179</t>
+          <t>(505) 431-5946</t>
         </is>
       </c>
       <c r="G613" s="0" t="inlineStr">
@@ -34010,6 +33971,12 @@
       </c>
       <c r="Q613" s="0">
         <v>329084</v>
+      </c>
+      <c r="R613" s="2">
+        <v>0</v>
+      </c>
+      <c r="S613" s="0">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="614">
@@ -34124,6 +34091,12 @@
       <c r="Q615" s="0">
         <v>330704</v>
       </c>
+      <c r="R615" s="2">
+        <v>0</v>
+      </c>
+      <c r="S615" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="616">
       <c r="A616" s="0">
@@ -34157,7 +34130,7 @@
         <v>43579.6259837963</v>
       </c>
       <c r="K616" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L616" s="0">
         <v>307347</v>
@@ -34214,7 +34187,7 @@
         <v>43585.4669718403</v>
       </c>
       <c r="K617" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L617" s="0">
         <v>307357</v>
@@ -34252,7 +34225,7 @@
         <v>43585.5161805556</v>
       </c>
       <c r="K618" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L618" s="0">
         <v>307361</v>
@@ -34275,6 +34248,880 @@
       </c>
       <c r="S618" s="0">
         <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="619">
+      <c r="A619" s="0">
+        <v>654</v>
+      </c>
+      <c r="B619" s="0">
+        <v>9399</v>
+      </c>
+      <c r="C619" s="0" t="inlineStr">
+        <is>
+          <t>2020 PAC</t>
+        </is>
+      </c>
+      <c r="E619" s="0" t="inlineStr">
+        <is>
+          <t>(505) 331-9047</t>
+        </is>
+      </c>
+      <c r="G619" s="0" t="inlineStr">
+        <is>
+          <t>2020pacnm@gmail.com</t>
+        </is>
+      </c>
+      <c r="H619" s="0">
+        <v>331632</v>
+      </c>
+      <c r="I619" s="0">
+        <v>6774</v>
+      </c>
+      <c r="J619" s="1">
+        <v>43601.6327083333</v>
+      </c>
+      <c r="K619" s="0">
+        <v>2</v>
+      </c>
+      <c r="L619" s="0">
+        <v>307422</v>
+      </c>
+      <c r="N619" s="0" t="inlineStr">
+        <is>
+          <t>New Mexico Bank &amp; Trust</t>
+        </is>
+      </c>
+      <c r="O619" s="0" t="inlineStr">
+        <is>
+          <t>(505) 830-8100</t>
+        </is>
+      </c>
+      <c r="Q619" s="0">
+        <v>331634</v>
+      </c>
+      <c r="R619" s="2">
+        <v>0</v>
+      </c>
+      <c r="S619" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="620">
+      <c r="A620" s="0">
+        <v>655</v>
+      </c>
+      <c r="B620" s="0">
+        <v>9400</v>
+      </c>
+      <c r="C620" s="0" t="inlineStr">
+        <is>
+          <t>NM PAC</t>
+        </is>
+      </c>
+      <c r="E620" s="0" t="inlineStr">
+        <is>
+          <t>(505) 270-4079</t>
+        </is>
+      </c>
+      <c r="G620" s="0" t="inlineStr">
+        <is>
+          <t>newmexicopac@gmail.com</t>
+        </is>
+      </c>
+      <c r="H620" s="0">
+        <v>331637</v>
+      </c>
+      <c r="I620" s="0">
+        <v>6775</v>
+      </c>
+      <c r="J620" s="1">
+        <v>43601.6393402778</v>
+      </c>
+      <c r="K620" s="0">
+        <v>1</v>
+      </c>
+      <c r="L620" s="0">
+        <v>307425</v>
+      </c>
+      <c r="N620" s="0" t="inlineStr">
+        <is>
+          <t>US Bank</t>
+        </is>
+      </c>
+      <c r="O620" s="0" t="inlineStr">
+        <is>
+          <t>(505) 246-8100</t>
+        </is>
+      </c>
+      <c r="Q620" s="0">
+        <v>331639</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="621">
+      <c r="A621" s="0">
+        <v>656</v>
+      </c>
+      <c r="B621" s="0">
+        <v>9401</v>
+      </c>
+      <c r="C621" s="0" t="inlineStr">
+        <is>
+          <t>MLG PAC</t>
+        </is>
+      </c>
+      <c r="E621" s="0" t="inlineStr">
+        <is>
+          <t>(281) 250-9615</t>
+        </is>
+      </c>
+      <c r="G621" s="0" t="inlineStr">
+        <is>
+          <t>shteffie@gmail.com</t>
+        </is>
+      </c>
+      <c r="H621" s="0">
+        <v>331643</v>
+      </c>
+      <c r="I621" s="0">
+        <v>6776</v>
+      </c>
+      <c r="J621" s="1">
+        <v>43601.649537037</v>
+      </c>
+      <c r="K621" s="0">
+        <v>1</v>
+      </c>
+      <c r="L621" s="0">
+        <v>307429</v>
+      </c>
+      <c r="N621" s="0" t="inlineStr">
+        <is>
+          <t>NM Bank &amp; Trust</t>
+        </is>
+      </c>
+      <c r="O621" s="0" t="inlineStr">
+        <is>
+          <t>(505) 830-8100</t>
+        </is>
+      </c>
+      <c r="Q621" s="0">
+        <v>331645</v>
+      </c>
+      <c r="R621" s="2">
+        <v>0</v>
+      </c>
+      <c r="S621" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="622">
+      <c r="A622" s="0">
+        <v>657</v>
+      </c>
+      <c r="B622" s="0">
+        <v>9411</v>
+      </c>
+      <c r="C622" s="0" t="inlineStr">
+        <is>
+          <t>Espa Fire PAC</t>
+        </is>
+      </c>
+      <c r="E622" s="0" t="inlineStr">
+        <is>
+          <t>(505) 570-0675</t>
+        </is>
+      </c>
+      <c r="F622" s="0" t="inlineStr">
+        <is>
+          <t>(505) 692-0010</t>
+        </is>
+      </c>
+      <c r="G622" s="0" t="inlineStr">
+        <is>
+          <t>jhnwickersham@yahoo.com</t>
+        </is>
+      </c>
+      <c r="H622" s="0">
+        <v>331751</v>
+      </c>
+      <c r="I622" s="0">
+        <v>6780</v>
+      </c>
+      <c r="J622" s="1">
+        <v>43627.3836458333</v>
+      </c>
+      <c r="K622" s="0">
+        <v>1</v>
+      </c>
+      <c r="L622" s="0">
+        <v>307522</v>
+      </c>
+      <c r="N622" s="0" t="inlineStr">
+        <is>
+          <t>Del Norte Credit Union</t>
+        </is>
+      </c>
+      <c r="O622" s="0" t="inlineStr">
+        <is>
+          <t>(505) 705-8228</t>
+        </is>
+      </c>
+      <c r="Q622" s="0">
+        <v>331753</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="623">
+      <c r="A623" s="0">
+        <v>658</v>
+      </c>
+      <c r="B623" s="0">
+        <v>9423</v>
+      </c>
+      <c r="C623" s="0" t="inlineStr">
+        <is>
+          <t>Save our Western Way of Life</t>
+        </is>
+      </c>
+      <c r="E623" s="0" t="inlineStr">
+        <is>
+          <t>(575)342-1302</t>
+        </is>
+      </c>
+      <c r="G623" s="0" t="inlineStr">
+        <is>
+          <t>gail@gailfornewmexico.com</t>
+        </is>
+      </c>
+      <c r="H623" s="0">
+        <v>331914</v>
+      </c>
+      <c r="I623" s="0">
+        <v>6786</v>
+      </c>
+      <c r="J623" s="1">
+        <v>43641.4574884259</v>
+      </c>
+      <c r="K623" s="0">
+        <v>1</v>
+      </c>
+      <c r="L623" s="0">
+        <v>307664</v>
+      </c>
+      <c r="N623" s="0" t="inlineStr">
+        <is>
+          <t>BBVA Compass Bank</t>
+        </is>
+      </c>
+      <c r="O623" s="0" t="inlineStr">
+        <is>
+          <t>(575) 894-3075</t>
+        </is>
+      </c>
+      <c r="Q623" s="0">
+        <v>331916</v>
+      </c>
+      <c r="R623" s="2">
+        <v>0</v>
+      </c>
+      <c r="S623" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="624">
+      <c r="A624" s="0">
+        <v>659</v>
+      </c>
+      <c r="B624" s="0">
+        <v>9429</v>
+      </c>
+      <c r="C624" s="0" t="inlineStr">
+        <is>
+          <t>Zeta PAC</t>
+        </is>
+      </c>
+      <c r="E624" s="0" t="inlineStr">
+        <is>
+          <t>(630) 335-2756</t>
+        </is>
+      </c>
+      <c r="G624" s="0" t="inlineStr">
+        <is>
+          <t>jake@nmhdcc.com</t>
+        </is>
+      </c>
+      <c r="H624" s="0">
+        <v>332015</v>
+      </c>
+      <c r="I624" s="0">
+        <v>6791</v>
+      </c>
+      <c r="J624" s="1">
+        <v>43665.4016666667</v>
+      </c>
+      <c r="K624" s="0">
+        <v>1</v>
+      </c>
+      <c r="L624" s="0">
+        <v>307751</v>
+      </c>
+      <c r="N624" s="0" t="inlineStr">
+        <is>
+          <t>NM Bank and Trust</t>
+        </is>
+      </c>
+      <c r="O624" s="0" t="inlineStr">
+        <is>
+          <t>(505) 831-8100</t>
+        </is>
+      </c>
+      <c r="Q624" s="0">
+        <v>332017</v>
+      </c>
+      <c r="R624" s="2">
+        <v>0</v>
+      </c>
+      <c r="S624" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="625">
+      <c r="A625" s="0">
+        <v>660</v>
+      </c>
+      <c r="B625" s="0">
+        <v>9443</v>
+      </c>
+      <c r="C625" s="0" t="inlineStr">
+        <is>
+          <t>New Mexico for Trump </t>
+        </is>
+      </c>
+      <c r="E625" s="0" t="inlineStr">
+        <is>
+          <t>575-605-1957</t>
+        </is>
+      </c>
+      <c r="G625" s="0" t="inlineStr">
+        <is>
+          <t>p_spncr@yahoo.com</t>
+        </is>
+      </c>
+      <c r="H625" s="0">
+        <v>332338</v>
+      </c>
+      <c r="I625" s="0">
+        <v>6799</v>
+      </c>
+      <c r="J625" s="1">
+        <v>43689.6592592593</v>
+      </c>
+      <c r="K625" s="0">
+        <v>1</v>
+      </c>
+      <c r="L625" s="0">
+        <v>308047</v>
+      </c>
+      <c r="N625" s="0" t="inlineStr">
+        <is>
+          <t>Western Commerce</t>
+        </is>
+      </c>
+      <c r="O625" s="0" t="inlineStr">
+        <is>
+          <t>575-887-6686</t>
+        </is>
+      </c>
+      <c r="Q625" s="0">
+        <v>332340</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="626">
+      <c r="A626" s="0">
+        <v>661</v>
+      </c>
+      <c r="B626" s="0">
+        <v>9444</v>
+      </c>
+      <c r="C626" s="0" t="inlineStr">
+        <is>
+          <t>Stop Grisham </t>
+        </is>
+      </c>
+      <c r="E626" s="0" t="inlineStr">
+        <is>
+          <t>575-605-1957</t>
+        </is>
+      </c>
+      <c r="G626" s="0" t="inlineStr">
+        <is>
+          <t>p_spncr@yahoo.com</t>
+        </is>
+      </c>
+      <c r="H626" s="0">
+        <v>332341</v>
+      </c>
+      <c r="I626" s="0">
+        <v>6800</v>
+      </c>
+      <c r="J626" s="1">
+        <v>43689.6658449074</v>
+      </c>
+      <c r="K626" s="0">
+        <v>1</v>
+      </c>
+      <c r="L626" s="0">
+        <v>308048</v>
+      </c>
+      <c r="N626" s="0" t="inlineStr">
+        <is>
+          <t>Western Commerce </t>
+        </is>
+      </c>
+      <c r="O626" s="0" t="inlineStr">
+        <is>
+          <t>575-887-6686</t>
+        </is>
+      </c>
+      <c r="Q626" s="0">
+        <v>332343</v>
+      </c>
+      <c r="R626" s="2">
+        <v>0</v>
+      </c>
+      <c r="S626" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="627">
+      <c r="A627" s="0">
+        <v>662</v>
+      </c>
+      <c r="B627" s="0">
+        <v>9445</v>
+      </c>
+      <c r="C627" s="0" t="inlineStr">
+        <is>
+          <t>New Mexico Thinks Local 28</t>
+        </is>
+      </c>
+      <c r="E627" s="0" t="inlineStr">
+        <is>
+          <t>(505) 304-8966</t>
+        </is>
+      </c>
+      <c r="G627" s="0" t="inlineStr">
+        <is>
+          <t>nmthinkslocal28@reagan.com</t>
+        </is>
+      </c>
+      <c r="H627" s="0">
+        <v>332362</v>
+      </c>
+      <c r="I627" s="0">
+        <v>6801</v>
+      </c>
+      <c r="J627" s="1">
+        <v>43691.359224537</v>
+      </c>
+      <c r="K627" s="0">
+        <v>1</v>
+      </c>
+      <c r="L627" s="0">
+        <v>308067</v>
+      </c>
+      <c r="N627" s="0" t="inlineStr">
+        <is>
+          <t>Wells Fargo Bank NA</t>
+        </is>
+      </c>
+      <c r="O627" s="0" t="inlineStr">
+        <is>
+          <t>(505) 299-6821</t>
+        </is>
+      </c>
+      <c r="Q627" s="0">
+        <v>332364</v>
+      </c>
+      <c r="R627" s="2">
+        <v>0</v>
+      </c>
+      <c r="S627" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="628">
+      <c r="A628" s="0">
+        <v>663</v>
+      </c>
+      <c r="B628" s="0">
+        <v>9453</v>
+      </c>
+      <c r="C628" s="0" t="inlineStr">
+        <is>
+          <t>Saddle PAC</t>
+        </is>
+      </c>
+      <c r="E628" s="0" t="inlineStr">
+        <is>
+          <t>630-335-2756</t>
+        </is>
+      </c>
+      <c r="G628" s="0" t="inlineStr">
+        <is>
+          <t>jake@nmhdcc.com</t>
+        </is>
+      </c>
+      <c r="H628" s="0">
+        <v>332419</v>
+      </c>
+      <c r="I628" s="0">
+        <v>6807</v>
+      </c>
+      <c r="J628" s="1">
+        <v>43697.582650463</v>
+      </c>
+      <c r="K628" s="0">
+        <v>1</v>
+      </c>
+      <c r="L628" s="0">
+        <v>308104</v>
+      </c>
+      <c r="N628" s="0" t="inlineStr">
+        <is>
+          <t>NM Bank and Trust</t>
+        </is>
+      </c>
+      <c r="O628" s="0" t="inlineStr">
+        <is>
+          <t>(505) 830-8100</t>
+        </is>
+      </c>
+      <c r="Q628" s="0">
+        <v>337943</v>
+      </c>
+      <c r="R628" s="2">
+        <v>0</v>
+      </c>
+      <c r="S628" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="629">
+      <c r="A629" s="0">
+        <v>664</v>
+      </c>
+      <c r="B629" s="0">
+        <v>9456</v>
+      </c>
+      <c r="C629" s="0" t="inlineStr">
+        <is>
+          <t>Yes for Our Children's Future</t>
+        </is>
+      </c>
+      <c r="E629" s="0" t="inlineStr">
+        <is>
+          <t>505-843-7587</t>
+        </is>
+      </c>
+      <c r="G629" s="0" t="inlineStr">
+        <is>
+          <t>YFOCF@designplusabq.com</t>
+        </is>
+      </c>
+      <c r="H629" s="0">
+        <v>332436</v>
+      </c>
+      <c r="I629" s="0">
+        <v>6809</v>
+      </c>
+      <c r="J629" s="1">
+        <v>43699.4666087963</v>
+      </c>
+      <c r="K629" s="0">
+        <v>1</v>
+      </c>
+      <c r="L629" s="0">
+        <v>308116</v>
+      </c>
+      <c r="N629" s="0" t="inlineStr">
+        <is>
+          <t>Nusenda Credit Union </t>
+        </is>
+      </c>
+      <c r="O629" s="0" t="inlineStr">
+        <is>
+          <t>505-889-7555</t>
+        </is>
+      </c>
+      <c r="Q629" s="0">
+        <v>332438</v>
+      </c>
+      <c r="R629" s="2">
+        <v>0</v>
+      </c>
+      <c r="S629" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="630">
+      <c r="A630" s="0">
+        <v>665</v>
+      </c>
+      <c r="B630" s="0">
+        <v>9525</v>
+      </c>
+      <c r="C630" s="0" t="inlineStr">
+        <is>
+          <t>Keep Our Freedom New Mexico, Inc.</t>
+        </is>
+      </c>
+      <c r="E630" s="0" t="inlineStr">
+        <is>
+          <t>5753928252</t>
+        </is>
+      </c>
+      <c r="G630" s="0" t="inlineStr">
+        <is>
+          <t>sandra.baxter@nmoilpatch.com</t>
+        </is>
+      </c>
+      <c r="H630" s="0">
+        <v>334144</v>
+      </c>
+      <c r="I630" s="0">
+        <v>6893</v>
+      </c>
+      <c r="J630" s="1">
+        <v>43741.5518634259</v>
+      </c>
+      <c r="K630" s="0">
+        <v>1</v>
+      </c>
+      <c r="L630" s="0">
+        <v>309572</v>
+      </c>
+      <c r="N630" s="0" t="inlineStr">
+        <is>
+          <t>Lea County State Bank</t>
+        </is>
+      </c>
+      <c r="O630" s="0" t="inlineStr">
+        <is>
+          <t>575-397-4511</t>
+        </is>
+      </c>
+      <c r="Q630" s="0">
+        <v>334146</v>
+      </c>
+      <c r="R630" s="2">
+        <v>0</v>
+      </c>
+      <c r="S630" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="631">
+      <c r="A631" s="0">
+        <v>666</v>
+      </c>
+      <c r="B631" s="0">
+        <v>9530</v>
+      </c>
+      <c r="C631" s="0" t="inlineStr">
+        <is>
+          <t>United For New Mexico</t>
+        </is>
+      </c>
+      <c r="E631" s="0" t="inlineStr">
+        <is>
+          <t>505-819-1616</t>
+        </is>
+      </c>
+      <c r="G631" s="0" t="inlineStr">
+        <is>
+          <t>alanwebber@me.com</t>
+        </is>
+      </c>
+      <c r="H631" s="0">
+        <v>334235</v>
+      </c>
+      <c r="I631" s="0">
+        <v>6898</v>
+      </c>
+      <c r="J631" s="1">
+        <v>43742.4364236111</v>
+      </c>
+      <c r="K631" s="0">
+        <v>1</v>
+      </c>
+      <c r="L631" s="0">
+        <v>309649</v>
+      </c>
+      <c r="N631" s="0" t="inlineStr">
+        <is>
+          <t>Century Bank</t>
+        </is>
+      </c>
+      <c r="O631" s="0" t="inlineStr">
+        <is>
+          <t>505-995-1200</t>
+        </is>
+      </c>
+      <c r="Q631" s="0">
+        <v>334241</v>
+      </c>
+      <c r="R631" s="2">
+        <v>0</v>
+      </c>
+      <c r="S631" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="632">
+      <c r="A632" s="0">
+        <v>667</v>
+      </c>
+      <c r="B632" s="0">
+        <v>9547</v>
+      </c>
+      <c r="C632" s="0" t="inlineStr">
+        <is>
+          <t>Turquoise New Mexico</t>
+        </is>
+      </c>
+      <c r="E632" s="0" t="inlineStr">
+        <is>
+          <t>(505) 221-6262</t>
+        </is>
+      </c>
+      <c r="G632" s="0" t="inlineStr">
+        <is>
+          <t>jakelondon.nm@gmail.com</t>
+        </is>
+      </c>
+      <c r="H632" s="0">
+        <v>335269</v>
+      </c>
+      <c r="I632" s="0">
+        <v>6917</v>
+      </c>
+      <c r="J632" s="1">
+        <v>43747.6893518519</v>
+      </c>
+      <c r="K632" s="0">
+        <v>1</v>
+      </c>
+      <c r="L632" s="0">
+        <v>310627</v>
+      </c>
+      <c r="N632" s="0" t="inlineStr">
+        <is>
+          <t>Southwest Capital Bank</t>
+        </is>
+      </c>
+      <c r="O632" s="0" t="inlineStr">
+        <is>
+          <t>(505) 243-1890</t>
+        </is>
+      </c>
+      <c r="Q632" s="0">
+        <v>335271</v>
+      </c>
+      <c r="R632" s="2">
+        <v>0</v>
+      </c>
+      <c r="S632" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="633">
+      <c r="A633" s="0">
+        <v>668</v>
+      </c>
+      <c r="B633" s="0">
+        <v>9554</v>
+      </c>
+      <c r="C633" s="0" t="inlineStr">
+        <is>
+          <t>Union County Democratic Party</t>
+        </is>
+      </c>
+      <c r="E633" s="0" t="inlineStr">
+        <is>
+          <t>5753741101</t>
+        </is>
+      </c>
+      <c r="G633" s="0" t="inlineStr">
+        <is>
+          <t>denise@turquoisemaidens.com</t>
+        </is>
+      </c>
+      <c r="H633" s="0">
+        <v>337745</v>
+      </c>
+      <c r="I633" s="0">
+        <v>6925</v>
+      </c>
+      <c r="J633" s="1">
+        <v>43753.5855897801</v>
+      </c>
+      <c r="K633" s="0">
+        <v>0</v>
+      </c>
+      <c r="L633" s="0">
+        <v>313080</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="634">
+      <c r="A634" s="0">
+        <v>669</v>
+      </c>
+      <c r="B634" s="0">
+        <v>9559</v>
+      </c>
+      <c r="C634" s="0" t="inlineStr">
+        <is>
+          <t>Jobs PAC</t>
+        </is>
+      </c>
+      <c r="E634" s="0" t="inlineStr">
+        <is>
+          <t>505-842-0644</t>
+        </is>
+      </c>
+      <c r="G634" s="0" t="inlineStr">
+        <is>
+          <t>rblack@nmaci.org</t>
+        </is>
+      </c>
+      <c r="H634" s="0">
+        <v>338207</v>
+      </c>
+      <c r="I634" s="0">
+        <v>6930</v>
+      </c>
+      <c r="J634" s="1">
+        <v>43754.4151041667</v>
+      </c>
+      <c r="K634" s="0">
+        <v>1</v>
+      </c>
+      <c r="L634" s="0">
+        <v>313528</v>
+      </c>
+      <c r="N634" s="0" t="inlineStr">
+        <is>
+          <t>US Bank</t>
+        </is>
+      </c>
+      <c r="O634" s="0" t="inlineStr">
+        <is>
+          <t>505-241-7597</t>
+        </is>
+      </c>
+      <c r="Q634" s="0">
+        <v>338209</v>
       </c>
     </row>
   </sheetData>
